--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>1.719635666666666</v>
+      </c>
+      <c r="H2">
+        <v>5.158906999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.9346523298789767</v>
+      </c>
+      <c r="J2">
+        <v>0.9346523298789766</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>33.10268900000001</v>
-      </c>
-      <c r="H2">
-        <v>99.30806700000001</v>
-      </c>
-      <c r="I2">
-        <v>0.6442155376576644</v>
-      </c>
-      <c r="J2">
-        <v>0.6442155376576644</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.6022393333333333</v>
+        <v>0.8467083333333334</v>
       </c>
       <c r="N2">
-        <v>1.806718</v>
+        <v>2.540125</v>
       </c>
       <c r="O2">
-        <v>0.1247313749130817</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="P2">
-        <v>0.1247313749130817</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="Q2">
-        <v>19.93574135490067</v>
+        <v>1.456029849263889</v>
       </c>
       <c r="R2">
-        <v>179.421672194106</v>
+        <v>13.104268643375</v>
       </c>
       <c r="S2">
-        <v>0.08035388975241066</v>
+        <v>0.1385393747939437</v>
       </c>
       <c r="T2">
-        <v>0.08035388975241066</v>
+        <v>0.1385393747939437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>33.10268900000001</v>
+        <v>1.719635666666666</v>
       </c>
       <c r="H3">
-        <v>99.30806700000001</v>
+        <v>5.158906999999999</v>
       </c>
       <c r="I3">
-        <v>0.6442155376576644</v>
+        <v>0.9346523298789767</v>
       </c>
       <c r="J3">
-        <v>0.6442155376576644</v>
+        <v>0.9346523298789766</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,42 +614,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9012106666666667</v>
+        <v>4.865587666666666</v>
       </c>
       <c r="N3">
-        <v>2.703632</v>
+        <v>14.596763</v>
       </c>
       <c r="O3">
-        <v>0.1866521153932185</v>
+        <v>0.8517744295230265</v>
       </c>
       <c r="P3">
-        <v>0.1866521153932185</v>
+        <v>0.8517744295230266</v>
       </c>
       <c r="Q3">
-        <v>29.83249642214934</v>
+        <v>8.367038090893443</v>
       </c>
       <c r="R3">
-        <v>268.4924677993441</v>
+        <v>75.30334281804099</v>
       </c>
       <c r="S3">
-        <v>0.1202441928729827</v>
+        <v>0.796112955085033</v>
       </c>
       <c r="T3">
-        <v>0.1202441928729827</v>
+        <v>0.796112955085033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>33.10268900000001</v>
+        <v>0.120231</v>
       </c>
       <c r="H4">
-        <v>99.30806700000001</v>
+        <v>0.360693</v>
       </c>
       <c r="I4">
-        <v>0.6442155376576644</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="J4">
-        <v>0.6442155376576644</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.324840666666667</v>
+        <v>0.8467083333333334</v>
       </c>
       <c r="N4">
-        <v>9.974522</v>
+        <v>2.540125</v>
       </c>
       <c r="O4">
-        <v>0.6886165096936998</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="P4">
-        <v>0.6886165096936997</v>
+        <v>0.1482255704769734</v>
       </c>
       <c r="Q4">
-        <v>110.0611665632194</v>
+        <v>0.101800589625</v>
       </c>
       <c r="R4">
-        <v>990.5504990689741</v>
+        <v>0.916205306625</v>
       </c>
       <c r="S4">
-        <v>0.4436174550322711</v>
+        <v>0.009686195683029744</v>
       </c>
       <c r="T4">
-        <v>0.443617455032271</v>
+        <v>0.009686195683029745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,371 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.719635666666667</v>
+        <v>0.120231</v>
       </c>
       <c r="H5">
-        <v>5.158907</v>
+        <v>0.360693</v>
       </c>
       <c r="I5">
-        <v>0.03346604306305637</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="J5">
-        <v>0.03346604306305638</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.6022393333333333</v>
+        <v>4.865587666666666</v>
       </c>
       <c r="N5">
-        <v>1.806718</v>
+        <v>14.596763</v>
       </c>
       <c r="O5">
-        <v>0.1247313749130817</v>
+        <v>0.8517744295230265</v>
       </c>
       <c r="P5">
-        <v>0.1247313749130817</v>
+        <v>0.8517744295230266</v>
       </c>
       <c r="Q5">
-        <v>1.035632237469556</v>
+        <v>0.584994470751</v>
       </c>
       <c r="R5">
-        <v>9.320690137226</v>
+        <v>5.264950236759</v>
       </c>
       <c r="S5">
-        <v>0.004174265564155423</v>
+        <v>0.05566147443799352</v>
       </c>
       <c r="T5">
-        <v>0.004174265564155424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>1.719635666666667</v>
-      </c>
-      <c r="H6">
-        <v>5.158907</v>
-      </c>
-      <c r="I6">
-        <v>0.03346604306305637</v>
-      </c>
-      <c r="J6">
-        <v>0.03346604306305638</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.9012106666666667</v>
-      </c>
-      <c r="N6">
-        <v>2.703632</v>
-      </c>
-      <c r="O6">
-        <v>0.1866521153932185</v>
-      </c>
-      <c r="P6">
-        <v>0.1866521153932185</v>
-      </c>
-      <c r="Q6">
-        <v>1.549754005580445</v>
-      </c>
-      <c r="R6">
-        <v>13.947786050224</v>
-      </c>
-      <c r="S6">
-        <v>0.006246507731560018</v>
-      </c>
-      <c r="T6">
-        <v>0.00624650773156002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>1.719635666666667</v>
-      </c>
-      <c r="H7">
-        <v>5.158907</v>
-      </c>
-      <c r="I7">
-        <v>0.03346604306305637</v>
-      </c>
-      <c r="J7">
-        <v>0.03346604306305638</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.324840666666667</v>
-      </c>
-      <c r="N7">
-        <v>9.974522</v>
-      </c>
-      <c r="O7">
-        <v>0.6886165096936998</v>
-      </c>
-      <c r="P7">
-        <v>0.6886165096936997</v>
-      </c>
-      <c r="Q7">
-        <v>5.717514596383778</v>
-      </c>
-      <c r="R7">
-        <v>51.45763136745401</v>
-      </c>
-      <c r="S7">
-        <v>0.02304526976734093</v>
-      </c>
-      <c r="T7">
-        <v>0.02304526976734093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>16.56216866666666</v>
-      </c>
-      <c r="H8">
-        <v>49.68650599999999</v>
-      </c>
-      <c r="I8">
-        <v>0.3223184192792792</v>
-      </c>
-      <c r="J8">
-        <v>0.3223184192792793</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.6022393333333333</v>
-      </c>
-      <c r="N8">
-        <v>1.806718</v>
-      </c>
-      <c r="O8">
-        <v>0.1247313749130817</v>
-      </c>
-      <c r="P8">
-        <v>0.1247313749130817</v>
-      </c>
-      <c r="Q8">
-        <v>9.974389416367554</v>
-      </c>
-      <c r="R8">
-        <v>89.76950474730799</v>
-      </c>
-      <c r="S8">
-        <v>0.04020321959651565</v>
-      </c>
-      <c r="T8">
-        <v>0.04020321959651565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>16.56216866666666</v>
-      </c>
-      <c r="H9">
-        <v>49.68650599999999</v>
-      </c>
-      <c r="I9">
-        <v>0.3223184192792792</v>
-      </c>
-      <c r="J9">
-        <v>0.3223184192792793</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.9012106666666667</v>
-      </c>
-      <c r="N9">
-        <v>2.703632</v>
-      </c>
-      <c r="O9">
-        <v>0.1866521153932185</v>
-      </c>
-      <c r="P9">
-        <v>0.1866521153932185</v>
-      </c>
-      <c r="Q9">
-        <v>14.92600306553244</v>
-      </c>
-      <c r="R9">
-        <v>134.334027589792</v>
-      </c>
-      <c r="S9">
-        <v>0.06016141478867582</v>
-      </c>
-      <c r="T9">
-        <v>0.06016141478867583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>16.56216866666666</v>
-      </c>
-      <c r="H10">
-        <v>49.68650599999999</v>
-      </c>
-      <c r="I10">
-        <v>0.3223184192792792</v>
-      </c>
-      <c r="J10">
-        <v>0.3223184192792793</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.324840666666667</v>
-      </c>
-      <c r="N10">
-        <v>9.974522</v>
-      </c>
-      <c r="O10">
-        <v>0.6886165096936998</v>
-      </c>
-      <c r="P10">
-        <v>0.6886165096936997</v>
-      </c>
-      <c r="Q10">
-        <v>55.06657191112577</v>
-      </c>
-      <c r="R10">
-        <v>495.5991472001319</v>
-      </c>
-      <c r="S10">
-        <v>0.2219537848940878</v>
-      </c>
-      <c r="T10">
-        <v>0.2219537848940878</v>
+        <v>0.05566147443799353</v>
       </c>
     </row>
   </sheetData>
